--- a/references/doc/book_DB.xlsx
+++ b/references/doc/book_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861433FC-3CA7-481D-995D-A3302189D3D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02032DD-1E7E-4047-9F8F-296E38ED8498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{BB594AE8-6E16-4900-BB74-6A93BBB7A836}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BB594AE8-6E16-4900-BB74-6A93BBB7A836}"/>
   </bookViews>
   <sheets>
     <sheet name="format" sheetId="1" r:id="rId1"/>
@@ -244,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>도서 판매량 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터 출처(교보문고, yes24 등등)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,10 +363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>auth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주소1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -396,6 +388,14 @@
   </si>
   <si>
     <t>user_info.user_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서 판매 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auth_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA477F98-CD2C-4461-887F-8D010F7821AC}">
   <dimension ref="B1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1221,7 +1221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32682CC-55A2-436B-B14E-EBAB4CC3D885}">
   <dimension ref="B1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>16</v>
@@ -1307,7 +1307,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
@@ -1411,7 +1411,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>11</v>
@@ -1424,7 +1424,7 @@
         <v>41</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s">
         <v>37</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>12</v>
@@ -1478,12 +1478,12 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>11</v>
@@ -1499,13 +1499,13 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="D18" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="22"/>
@@ -1571,7 +1571,7 @@
   <dimension ref="B1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>12</v>
@@ -1680,13 +1680,13 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D8" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>12</v>
@@ -1944,13 +1944,13 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D8" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -2096,7 +2096,7 @@
   <dimension ref="B1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2118,7 +2118,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>12</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>11</v>
@@ -2183,13 +2183,13 @@
       <c r="D6" s="19"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>11</v>
@@ -2197,19 +2197,19 @@
       <c r="D7" s="19"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D8" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -2355,7 +2355,7 @@
   <dimension ref="B1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2377,7 +2377,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>12</v>
@@ -2440,129 +2440,129 @@
         <v>16</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>16</v>
@@ -2573,18 +2573,18 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
